--- a/JHTarget.xlsx
+++ b/JHTarget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Programming\Revature\Revature UIPath Batch\Goldeneyez-P2\P2\Embrey_J\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2200F1-6F83-4E72-B468-4BB26CDEF0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03360E6-3FF5-40AA-91E9-EA7163692F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E55FB888-F783-4EA1-8BBA-8F52E4557773}"/>
   </bookViews>
@@ -116,12 +116,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,65 +438,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29FDB7B-8CA3-41C4-9FCD-4217EE0D0A61}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -503,6 +508,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007764865F147EA74CB59F31D27A7E330C" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ccd50651979aa9c3227dda963f03f74e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7da44481e256f74dfaf1dc2e5686d06f">
     <xsd:element name="properties">
@@ -616,22 +636,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75AEEEC7-7DDC-408C-93B8-D90EF6D7CC8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E175AFA-C563-4424-9477-512592E3B581}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A755AC-5467-4DFC-A6DB-4263311BFD56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -645,27 +673,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75AEEEC7-7DDC-408C-93B8-D90EF6D7CC8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E175AFA-C563-4424-9477-512592E3B581}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>